--- a/thin_slices/firstyearice/biogeochemical1/BGC1.xlsx
+++ b/thin_slices/firstyearice/biogeochemical1/BGC1.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_5670BB7F23E702039D25A61CC1B4C35EF74B7BAB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20200220" sheetId="1" r:id="rId1"/>
     <sheet name="Ark2" sheetId="2" r:id="rId2"/>
     <sheet name="Ark3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -99,7 +100,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -141,14 +142,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kontortema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
-    <a:clrScheme name="Kontor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -186,9 +190,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kontor">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,9 +225,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,9 +277,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kontor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -431,16 +469,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -448,7 +486,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -477,7 +515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D3">
         <v>0</v>
       </c>
@@ -494,7 +532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -524,7 +562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -560,7 +598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -596,7 +634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -607,7 +645,7 @@
         <v>3.94</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -630,7 +668,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -665,7 +703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>12</v>
       </c>
@@ -700,7 +738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>15</v>
       </c>
@@ -735,7 +773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>18</v>
       </c>
@@ -770,7 +808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>21</v>
       </c>
@@ -805,7 +843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>26</v>
       </c>
@@ -840,7 +878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>31</v>
       </c>
@@ -875,7 +913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>36</v>
       </c>
@@ -910,7 +948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -939,7 +977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E18">
         <v>2</v>
       </c>
@@ -965,7 +1003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E19">
         <v>1</v>
       </c>
@@ -991,7 +1029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>23</v>
       </c>
@@ -1005,24 +1043,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
